--- a/downloads/VIC.xlsx
+++ b/downloads/VIC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\SiteReportAutomate\downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848166BC-8AFB-4936-B3F3-F66DD322C1D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFB0BEA-28F6-4978-A6C2-54AD66E2BE3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,12 +31,6 @@
     <t>OpcoID</t>
   </si>
   <si>
-    <t>100020</t>
-  </si>
-  <si>
-    <t>TC101673</t>
-  </si>
-  <si>
     <t>FXAU</t>
   </si>
   <si>
@@ -45,12 +39,18 @@
   <si>
     <t>VIC</t>
   </si>
+  <si>
+    <t>237196</t>
+  </si>
+  <si>
+    <t>TC101687</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -68,6 +68,12 @@
       <sz val="13"/>
       <color rgb="FF222222"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -90,12 +96,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -435,8 +444,8 @@
   <dimension ref="A1:D4665"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4637" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:D4665"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,21 +465,21 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
